--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Edil3</t>
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H2">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I2">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J2">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>0.658701550052</v>
+        <v>0.42714929115075</v>
       </c>
       <c r="R2">
-        <v>2.634806200208</v>
+        <v>1.708597164603</v>
       </c>
       <c r="S2">
-        <v>0.01332313444633138</v>
+        <v>0.005315824224603016</v>
       </c>
       <c r="T2">
-        <v>0.009504924648527485</v>
+        <v>0.003112041533719247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H3">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I3">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J3">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>0.157491691448</v>
+        <v>0.06560450561349999</v>
       </c>
       <c r="R3">
-        <v>0.9449501486879999</v>
+        <v>0.393627033681</v>
       </c>
       <c r="S3">
-        <v>0.003185483591432563</v>
+        <v>0.0008164405921026552</v>
       </c>
       <c r="T3">
-        <v>0.003408857911137919</v>
+        <v>0.0007169528915229163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H4">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I4">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J4">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>0.029699700576</v>
+        <v>0.02769063656333333</v>
       </c>
       <c r="R4">
-        <v>0.178198203456</v>
+        <v>0.16614381938</v>
       </c>
       <c r="S4">
-        <v>0.0006007168250303893</v>
+        <v>0.0003446068147309551</v>
       </c>
       <c r="T4">
-        <v>0.0006428406370907048</v>
+        <v>0.0003026146110932162</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H5">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I5">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J5">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>0.07259329532</v>
+        <v>0.04050342584575</v>
       </c>
       <c r="R5">
-        <v>0.29037318128</v>
+        <v>0.162013703383</v>
       </c>
       <c r="S5">
-        <v>0.001468298098545915</v>
+        <v>0.0005040605164302207</v>
       </c>
       <c r="T5">
-        <v>0.001047505963740988</v>
+        <v>0.000295092011390946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H6">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I6">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J6">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>0.4748790092106667</v>
+        <v>0.7470573000998334</v>
       </c>
       <c r="R6">
-        <v>2.849274055264</v>
+        <v>4.482343800599001</v>
       </c>
       <c r="S6">
-        <v>0.009605073625460401</v>
+        <v>0.009297042919908979</v>
       </c>
       <c r="T6">
-        <v>0.01027860614422067</v>
+        <v>0.008164147971715873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.118664</v>
+        <v>0.0494305</v>
       </c>
       <c r="H7">
-        <v>0.237328</v>
+        <v>0.098861</v>
       </c>
       <c r="I7">
-        <v>0.02903960483388136</v>
+        <v>0.01637717096924284</v>
       </c>
       <c r="J7">
-        <v>0.02579972146545566</v>
+        <v>0.01267795736397078</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>0.04236542128</v>
+        <v>0.007970816416500002</v>
       </c>
       <c r="R7">
-        <v>0.25419252768</v>
+        <v>0.04782489849900001</v>
       </c>
       <c r="S7">
-        <v>0.0008568982470807148</v>
+        <v>9.919590146701268E-05</v>
       </c>
       <c r="T7">
-        <v>0.0009169861607378956</v>
+        <v>8.710834452858133E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H8">
         <v>1.229999</v>
       </c>
       <c r="I8">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J8">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>2.275900154673167</v>
+        <v>3.542975834529499</v>
       </c>
       <c r="R8">
-        <v>13.655400928039</v>
+        <v>21.257855007177</v>
       </c>
       <c r="S8">
-        <v>0.0460331750316107</v>
+        <v>0.04409193028890722</v>
       </c>
       <c r="T8">
-        <v>0.04926113991085822</v>
+        <v>0.03871909018149866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H9">
         <v>1.229999</v>
       </c>
       <c r="I9">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J9">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
-        <v>0.5441544275976666</v>
+        <v>0.5441544275976665</v>
       </c>
       <c r="R9">
         <v>4.897389848378999</v>
       </c>
       <c r="S9">
-        <v>0.01100626315192044</v>
+        <v>0.006771939806702837</v>
       </c>
       <c r="T9">
-        <v>0.0176670760375587</v>
+        <v>0.00892011348884085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H10">
         <v>1.229999</v>
       </c>
       <c r="I10">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J10">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>0.102616356572</v>
+        <v>0.2296790799355555</v>
       </c>
       <c r="R10">
-        <v>0.923547209148</v>
+        <v>2.06711171942</v>
       </c>
       <c r="S10">
-        <v>0.002075555332902295</v>
+        <v>0.002858329961678586</v>
       </c>
       <c r="T10">
-        <v>0.003331647933581078</v>
+        <v>0.003765040501613829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H11">
         <v>1.229999</v>
       </c>
       <c r="I11">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J11">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>0.2508193460816667</v>
+        <v>0.3359543418661666</v>
       </c>
       <c r="R11">
-        <v>1.50491607649</v>
+        <v>2.015726051197</v>
       </c>
       <c r="S11">
-        <v>0.005073162298347652</v>
+        <v>0.004180913478848451</v>
       </c>
       <c r="T11">
-        <v>0.005428905514290146</v>
+        <v>0.003671446565570367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H12">
         <v>1.229999</v>
       </c>
       <c r="I12">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J12">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>1.640769192706889</v>
+        <v>6.196442358904555</v>
       </c>
       <c r="R12">
-        <v>14.766922734362</v>
+        <v>55.767981230141</v>
       </c>
       <c r="S12">
-        <v>0.03318678777681148</v>
+        <v>0.07711401863522267</v>
       </c>
       <c r="T12">
-        <v>0.05327089630715836</v>
+        <v>0.1015758877723526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4099996666666667</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H13">
         <v>1.229999</v>
       </c>
       <c r="I13">
-        <v>0.1003356393010777</v>
+        <v>0.1358399093339653</v>
       </c>
       <c r="J13">
-        <v>0.1337121266887557</v>
+        <v>0.1577353544848493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>0.1463780809933334</v>
+        <v>0.066113676249</v>
       </c>
       <c r="R13">
-        <v>1.31740272894</v>
+        <v>0.595023086241</v>
       </c>
       <c r="S13">
-        <v>0.002960695709485135</v>
+        <v>0.0008227771626055716</v>
       </c>
       <c r="T13">
-        <v>0.004752460985309155</v>
+        <v>0.001083775974973048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H14">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I14">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J14">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>3.421048928554834</v>
+        <v>5.420106447617</v>
       </c>
       <c r="R14">
-        <v>20.52629357132901</v>
+        <v>32.520638685702</v>
       </c>
       <c r="S14">
-        <v>0.06919536597267126</v>
+        <v>0.06745260673744385</v>
       </c>
       <c r="T14">
-        <v>0.0740475233790001</v>
+        <v>0.05923314189538473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H15">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I15">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J15">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.8179528076743333</v>
+        <v>0.8324569681726666</v>
       </c>
       <c r="R15">
-        <v>7.361575269069</v>
+        <v>7.492112713554</v>
       </c>
       <c r="S15">
-        <v>0.0165442076560152</v>
+        <v>0.01035983205176407</v>
       </c>
       <c r="T15">
-        <v>0.02655649520691144</v>
+        <v>0.01364614575215193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H16">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I16">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J16">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.154249111492</v>
+        <v>0.3513670767688889</v>
       </c>
       <c r="R16">
-        <v>1.388242003428</v>
+        <v>3.16230369092</v>
       </c>
       <c r="S16">
-        <v>0.003119898003083249</v>
+        <v>0.004372723207345366</v>
       </c>
       <c r="T16">
-        <v>0.005008009938439612</v>
+        <v>0.005759824862324036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H17">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I17">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J17">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.3770223633983334</v>
+        <v>0.5139488327036666</v>
       </c>
       <c r="R17">
-        <v>2.26213418039</v>
+        <v>3.083692996222</v>
       </c>
       <c r="S17">
-        <v>0.007625789914162282</v>
+        <v>0.006396034622303499</v>
       </c>
       <c r="T17">
-        <v>0.008160529957675081</v>
+        <v>0.005616643220704291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H18">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I18">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J18">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>2.466343559575779</v>
+        <v>9.479425982662889</v>
       </c>
       <c r="R18">
-        <v>22.19709203618201</v>
+        <v>85.31483384396601</v>
       </c>
       <c r="S18">
-        <v>0.04988515183010815</v>
+        <v>0.1179703755055199</v>
       </c>
       <c r="T18">
-        <v>0.08007484087584275</v>
+        <v>0.1553925710900202</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6162963333333334</v>
+        <v>0.6272246666666667</v>
       </c>
       <c r="H19">
-        <v>1.848889</v>
+        <v>1.881674</v>
       </c>
       <c r="I19">
-        <v>0.1508208216524812</v>
+        <v>0.2078102710295536</v>
       </c>
       <c r="J19">
-        <v>0.2009911229207883</v>
+        <v>0.2413063062774234</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.2200301169266667</v>
+        <v>0.101141859174</v>
       </c>
       <c r="R19">
-        <v>1.98027105234</v>
+        <v>0.9102767325660002</v>
       </c>
       <c r="S19">
-        <v>0.004450408276441089</v>
+        <v>0.001258698905176896</v>
       </c>
       <c r="T19">
-        <v>0.007143723562919366</v>
+        <v>0.001657979456838124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.9413215</v>
+        <v>1.2074735</v>
       </c>
       <c r="H20">
-        <v>5.882643</v>
+        <v>2.414947</v>
       </c>
       <c r="I20">
-        <v>0.7198039342125597</v>
+        <v>0.4000566441838549</v>
       </c>
       <c r="J20">
-        <v>0.6394970289250003</v>
+        <v>0.3096933583743755</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>16.32721829073075</v>
+        <v>10.43427538884525</v>
       </c>
       <c r="R20">
-        <v>65.30887316292301</v>
+        <v>41.737101555381</v>
       </c>
       <c r="S20">
-        <v>0.3302401890580554</v>
+        <v>0.1298533674930699</v>
       </c>
       <c r="T20">
-        <v>0.2355983215178473</v>
+        <v>0.07602002170452143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.9413215</v>
+        <v>1.2074735</v>
       </c>
       <c r="H21">
-        <v>5.882643</v>
+        <v>2.414947</v>
       </c>
       <c r="I21">
-        <v>0.7198039342125597</v>
+        <v>0.4000566441838549</v>
       </c>
       <c r="J21">
-        <v>0.6394970289250003</v>
+        <v>0.3096933583743755</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>3.9037424840505</v>
+        <v>1.6025672815145</v>
       </c>
       <c r="R21">
-        <v>23.422454904303</v>
+        <v>9.615403689086998</v>
       </c>
       <c r="S21">
-        <v>0.07895849942171017</v>
+        <v>0.01994376709295406</v>
       </c>
       <c r="T21">
-        <v>0.08449527290901243</v>
+        <v>0.01751351123824958</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.9413215</v>
+        <v>1.2074735</v>
       </c>
       <c r="H22">
-        <v>5.882643</v>
+        <v>2.414947</v>
       </c>
       <c r="I22">
-        <v>0.7198039342125597</v>
+        <v>0.4000566441838549</v>
       </c>
       <c r="J22">
-        <v>0.6394970289250003</v>
+        <v>0.3096933583743755</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>0.736165710306</v>
+        <v>0.6764186048766666</v>
       </c>
       <c r="R22">
-        <v>4.416994261836</v>
+        <v>4.05851162926</v>
       </c>
       <c r="S22">
-        <v>0.01488995241078695</v>
+        <v>0.008417952412114746</v>
       </c>
       <c r="T22">
-        <v>0.01593407425123532</v>
+        <v>0.007392179395471714</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.9413215</v>
+        <v>1.2074735</v>
       </c>
       <c r="H23">
-        <v>5.882643</v>
+        <v>2.414947</v>
       </c>
       <c r="I23">
-        <v>0.7198039342125597</v>
+        <v>0.4000566441838549</v>
       </c>
       <c r="J23">
-        <v>0.6394970289250003</v>
+        <v>0.3096933583743755</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>1.7993681342325</v>
+        <v>0.9894055971102499</v>
       </c>
       <c r="R23">
-        <v>7.19747253693</v>
+        <v>3.957622388441</v>
       </c>
       <c r="S23">
-        <v>0.03639466700652447</v>
+        <v>0.01231303984353397</v>
       </c>
       <c r="T23">
-        <v>0.0259645032404907</v>
+        <v>0.007208419575287835</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>2</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.9413215</v>
+        <v>1.2074735</v>
       </c>
       <c r="H24">
-        <v>5.882643</v>
+        <v>2.414947</v>
       </c>
       <c r="I24">
-        <v>0.7198039342125597</v>
+        <v>0.4000566441838549</v>
       </c>
       <c r="J24">
-        <v>0.6394970289250003</v>
+        <v>0.3096933583743755</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>11.770813723539</v>
+        <v>18.24889274541217</v>
       </c>
       <c r="R24">
-        <v>70.624882341234</v>
+        <v>109.493356472473</v>
       </c>
       <c r="S24">
-        <v>0.2380807116197804</v>
+        <v>0.2271053894691074</v>
       </c>
       <c r="T24">
-        <v>0.2547755447484355</v>
+        <v>0.1994313698207719</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.2074735</v>
+      </c>
+      <c r="H25">
+        <v>2.414947</v>
+      </c>
+      <c r="I25">
+        <v>0.4000566441838549</v>
+      </c>
+      <c r="J25">
+        <v>0.3096933583743755</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.161253</v>
+      </c>
+      <c r="N25">
+        <v>0.4837590000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.00605696195352101</v>
+      </c>
+      <c r="P25">
+        <v>0.006870850092628699</v>
+      </c>
+      <c r="Q25">
+        <v>0.1947087242955</v>
+      </c>
+      <c r="R25">
+        <v>1.168252345773</v>
+      </c>
+      <c r="S25">
+        <v>0.002423127873074902</v>
+      </c>
+      <c r="T25">
+        <v>0.002127856640073071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.145838</v>
+      </c>
+      <c r="H26">
+        <v>0.437514</v>
+      </c>
+      <c r="I26">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J26">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.6414115</v>
+      </c>
+      <c r="N26">
+        <v>17.282823</v>
+      </c>
+      <c r="O26">
+        <v>0.324587453754156</v>
+      </c>
+      <c r="P26">
+        <v>0.245468685875478</v>
+      </c>
+      <c r="Q26">
+        <v>1.260246170337</v>
+      </c>
+      <c r="R26">
+        <v>7.561477022022</v>
+      </c>
+      <c r="S26">
+        <v>0.01568361989596817</v>
+      </c>
+      <c r="T26">
+        <v>0.0137724860115075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.145838</v>
+      </c>
+      <c r="H27">
+        <v>0.437514</v>
+      </c>
+      <c r="I27">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J27">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.327207</v>
+      </c>
+      <c r="N27">
+        <v>3.981621</v>
+      </c>
+      <c r="O27">
+        <v>0.04985235811703818</v>
+      </c>
+      <c r="P27">
+        <v>0.05655113603398049</v>
+      </c>
+      <c r="Q27">
+        <v>0.193557214466</v>
+      </c>
+      <c r="R27">
+        <v>1.742014930194</v>
+      </c>
+      <c r="S27">
+        <v>0.00240879746454248</v>
+      </c>
+      <c r="T27">
+        <v>0.003172908703955626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.145838</v>
+      </c>
+      <c r="H28">
+        <v>0.437514</v>
+      </c>
+      <c r="I28">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J28">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5601933333333333</v>
+      </c>
+      <c r="N28">
+        <v>1.68058</v>
+      </c>
+      <c r="O28">
+        <v>0.02104190127697539</v>
+      </c>
+      <c r="P28">
+        <v>0.0238693507483477</v>
+      </c>
+      <c r="Q28">
+        <v>0.08169747534666666</v>
+      </c>
+      <c r="R28">
+        <v>0.73527727812</v>
+      </c>
+      <c r="S28">
+        <v>0.001016715765503749</v>
+      </c>
+      <c r="T28">
+        <v>0.001339235178258741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.145838</v>
+      </c>
+      <c r="H29">
+        <v>0.437514</v>
+      </c>
+      <c r="I29">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J29">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8194015</v>
+      </c>
+      <c r="N29">
+        <v>1.638803</v>
+      </c>
+      <c r="O29">
+        <v>0.03077824108796764</v>
+      </c>
+      <c r="P29">
+        <v>0.02327599020245657</v>
+      </c>
+      <c r="Q29">
+        <v>0.119499875957</v>
+      </c>
+      <c r="R29">
+        <v>0.7169992557420001</v>
+      </c>
+      <c r="S29">
+        <v>0.001487162330851408</v>
+      </c>
+      <c r="T29">
+        <v>0.001305943559863832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.145838</v>
+      </c>
+      <c r="H30">
+        <v>0.437514</v>
+      </c>
+      <c r="I30">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J30">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.11328633333333</v>
+      </c>
+      <c r="N30">
+        <v>45.339859</v>
+      </c>
+      <c r="O30">
+        <v>0.5676830838103418</v>
+      </c>
+      <c r="P30">
+        <v>0.6439639870471084</v>
+      </c>
+      <c r="Q30">
+        <v>2.204091452280667</v>
+      </c>
+      <c r="R30">
+        <v>19.836823070526</v>
+      </c>
+      <c r="S30">
+        <v>0.02742966681206312</v>
+      </c>
+      <c r="T30">
+        <v>0.03613082040134429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.9413215</v>
-      </c>
-      <c r="H25">
-        <v>5.882643</v>
-      </c>
-      <c r="I25">
-        <v>0.7198039342125597</v>
-      </c>
-      <c r="J25">
-        <v>0.6394970289250003</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N25">
-        <v>1.07106</v>
-      </c>
-      <c r="O25">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P25">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q25">
-        <v>1.05011060193</v>
-      </c>
-      <c r="R25">
-        <v>6.300663611580001</v>
-      </c>
-      <c r="S25">
-        <v>0.02123991469570231</v>
-      </c>
-      <c r="T25">
-        <v>0.02272931225797907</v>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.145838</v>
+      </c>
+      <c r="H31">
+        <v>0.437514</v>
+      </c>
+      <c r="I31">
+        <v>0.04831862635037957</v>
+      </c>
+      <c r="J31">
+        <v>0.05610689592600026</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.161253</v>
+      </c>
+      <c r="N31">
+        <v>0.4837590000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.00605696195352101</v>
+      </c>
+      <c r="P31">
+        <v>0.006870850092628699</v>
+      </c>
+      <c r="Q31">
+        <v>0.023516815014</v>
+      </c>
+      <c r="R31">
+        <v>0.211651335126</v>
+      </c>
+      <c r="S31">
+        <v>0.0002926640814506468</v>
+      </c>
+      <c r="T31">
+        <v>0.0003855020710702676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.57829</v>
+      </c>
+      <c r="H32">
+        <v>1.73487</v>
+      </c>
+      <c r="I32">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J32">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.6414115</v>
+      </c>
+      <c r="N32">
+        <v>17.282823</v>
+      </c>
+      <c r="O32">
+        <v>0.324587453754156</v>
+      </c>
+      <c r="P32">
+        <v>0.245468685875478</v>
+      </c>
+      <c r="Q32">
+        <v>4.997241856335</v>
+      </c>
+      <c r="R32">
+        <v>29.98345113801</v>
+      </c>
+      <c r="S32">
+        <v>0.06219010511416389</v>
+      </c>
+      <c r="T32">
+        <v>0.05461190454884646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.57829</v>
+      </c>
+      <c r="H33">
+        <v>1.73487</v>
+      </c>
+      <c r="I33">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J33">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.04985235811703818</v>
+      </c>
+      <c r="P33">
+        <v>0.05655113603398049</v>
+      </c>
+      <c r="Q33">
+        <v>0.7675105360299999</v>
+      </c>
+      <c r="R33">
+        <v>6.907594824269999</v>
+      </c>
+      <c r="S33">
+        <v>0.009551581108972081</v>
+      </c>
+      <c r="T33">
+        <v>0.01258150395925958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.57829</v>
+      </c>
+      <c r="H34">
+        <v>1.73487</v>
+      </c>
+      <c r="I34">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J34">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5601933333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.68058</v>
+      </c>
+      <c r="O34">
+        <v>0.02104190127697539</v>
+      </c>
+      <c r="P34">
+        <v>0.0238693507483477</v>
+      </c>
+      <c r="Q34">
+        <v>0.3239542027333333</v>
+      </c>
+      <c r="R34">
+        <v>2.9155878246</v>
+      </c>
+      <c r="S34">
+        <v>0.004031573115601987</v>
+      </c>
+      <c r="T34">
+        <v>0.005310456199586166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.57829</v>
+      </c>
+      <c r="H35">
+        <v>1.73487</v>
+      </c>
+      <c r="I35">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J35">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8194015</v>
+      </c>
+      <c r="N35">
+        <v>1.638803</v>
+      </c>
+      <c r="O35">
+        <v>0.03077824108796764</v>
+      </c>
+      <c r="P35">
+        <v>0.02327599020245657</v>
+      </c>
+      <c r="Q35">
+        <v>0.473851693435</v>
+      </c>
+      <c r="R35">
+        <v>2.84311016061</v>
+      </c>
+      <c r="S35">
+        <v>0.005897030296000087</v>
+      </c>
+      <c r="T35">
+        <v>0.005178445269639296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.57829</v>
+      </c>
+      <c r="H36">
+        <v>1.73487</v>
+      </c>
+      <c r="I36">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J36">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.11328633333333</v>
+      </c>
+      <c r="N36">
+        <v>45.339859</v>
+      </c>
+      <c r="O36">
+        <v>0.5676830838103418</v>
+      </c>
+      <c r="P36">
+        <v>0.6439639870471084</v>
+      </c>
+      <c r="Q36">
+        <v>8.739862353703334</v>
+      </c>
+      <c r="R36">
+        <v>78.65876118333</v>
+      </c>
+      <c r="S36">
+        <v>0.1087665904685197</v>
+      </c>
+      <c r="T36">
+        <v>0.1432691899909035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.57829</v>
+      </c>
+      <c r="H37">
+        <v>1.73487</v>
+      </c>
+      <c r="I37">
+        <v>0.1915973781330037</v>
+      </c>
+      <c r="J37">
+        <v>0.2224801275733806</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.161253</v>
+      </c>
+      <c r="N37">
+        <v>0.4837590000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.00605696195352101</v>
+      </c>
+      <c r="P37">
+        <v>0.006870850092628699</v>
+      </c>
+      <c r="Q37">
+        <v>0.09325099737</v>
+      </c>
+      <c r="R37">
+        <v>0.83925897633</v>
+      </c>
+      <c r="S37">
+        <v>0.001160498029745982</v>
+      </c>
+      <c r="T37">
+        <v>0.001528627605145607</v>
       </c>
     </row>
   </sheetData>
